--- a/test/org/hy/common/report/junit/formula/JU_Formula.xlsx
+++ b/test/org/hy/common/report/junit/formula/JU_Formula.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Excel公式计算的演示" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ZhengWei(HY)</author>
+  </authors>
+  <commentList>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZhengWei(HY):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参与Excel公式的占位符
+要求设置格式为数字格式，步骤如下：
+1. 请右击单元格，选择“设置单元格格式(F)”
+2. 在“数字”选项卡下选择：数值、货币、分数、科学计数、百分比等</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>数据区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,12 +111,35 @@
     <t>四则运算：除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>:paramKey1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:paramKey2</t>
+  </si>
+  <si>
+    <t>:paramKey3</t>
+  </si>
+  <si>
+    <t>:paramKey4</t>
+  </si>
+  <si>
+    <t>:paramKey5</t>
+  </si>
+  <si>
+    <t>占位符的合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +164,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,7 +237,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,12 +528,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -455,17 +543,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -586,14 +674,49 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <f>SUM(A7:E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -601,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="XEF1" workbookViewId="0">
+    <sheetView topLeftCell="XEF1" workbookViewId="0">
       <selection activeCell="XFD1" sqref="XFD1"/>
     </sheetView>
   </sheetViews>

--- a/test/org/hy/common/report/junit/formula/JU_Formula.xlsx
+++ b/test/org/hy/common/report/junit/formula/JU_Formula.xlsx
@@ -30,7 +30,7 @@
     <author>ZhengWei(HY)</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>数据区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>Excel公式名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel公式及结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,6 +125,48 @@
   </si>
   <si>
     <t>占位符的合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel公式及结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3+B3</t>
+  </si>
+  <si>
+    <t>E4-A4</t>
+  </si>
+  <si>
+    <t>B5*C5</t>
+  </si>
+  <si>
+    <t>D6/B6</t>
+  </si>
+  <si>
+    <t>SUM(A7:E7)</t>
+  </si>
+  <si>
+    <t>平均值：单元格绝对定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVERAGEA($A$7:$E$7)</t>
+  </si>
+  <si>
+    <t>占位符填充公式：动态公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:dyForumla</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,8 +284,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,33 +573,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -574,11 +620,14 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -595,14 +644,17 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
         <f>A3+B3</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -619,14 +671,17 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
         <f>E4-A4</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -643,14 +698,17 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
         <f>B5*C5</f>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -667,51 +725,111 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
         <f>D6/B6</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGEA($A$7:$E$7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <f>SUM(A7:E7)</f>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="8">
+        <f>SUM(A9:E9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/org/hy/common/report/junit/formula/JU_Formula.xlsx
+++ b/test/org/hy/common/report/junit/formula/JU_Formula.xlsx
@@ -30,6 +30,31 @@
     <author>ZhengWei(HY)</author>
   </authors>
   <commentList>
+    <comment ref="H8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ZhengWei(HY):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+由Java代码动态生成，并按占位符填充。
+填充值的首字母为等号（=）</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
@@ -284,14 +309,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,18 +613,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -784,7 +809,7 @@
       <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -810,20 +835,20 @@
       <c r="G9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <f>SUM(A9:E9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/test/org/hy/common/report/junit/formula/JU_Formula.xlsx
+++ b/test/org/hy/common/report/junit/formula/JU_Formula.xlsx
@@ -202,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +238,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="华文琥珀"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -290,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +324,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,7 +613,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,7 +623,7 @@
     <col min="7" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -620,11 +631,11 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">

--- a/test/org/hy/common/report/junit/formula/JU_Formula.xlsx
+++ b/test/org/hy/common/report/junit/formula/JU_Formula.xlsx
@@ -1,36 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace_SearchDesktop\hy.common.report\test\org\hy\common\report\junit\formula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\hy.common.report\test\org\hy\common\report\junit\formula\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB200563-1201-454A-932D-E8916A2A1DB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel公式计算的演示" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ZhengWei(HY)</author>
   </authors>
   <commentList>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -198,11 +205,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +252,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="华文琥珀"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -298,14 +313,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -314,19 +326,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,12 +620,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -624,42 +636,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -820,46 +832,46 @@
       <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <f>SUM(A9:E9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -875,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD1"/>
   <sheetViews>
     <sheetView topLeftCell="XEF1" workbookViewId="0">
